--- a/server/course_24_S_MEC.xlsx
+++ b/server/course_24_S_MEC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="85">
   <si>
     <t>Class Nbr</t>
   </si>
@@ -70,20 +70,56 @@
     <t>Cornelius Bradter</t>
   </si>
   <si>
-    <t>Eng Graphics and CAD</t>
+    <t>Engineering Computing and Problem Solving</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Engineering Graphics and CAD</t>
   </si>
   <si>
     <t>TH</t>
   </si>
   <si>
-    <t>A211</t>
-  </si>
-  <si>
-    <t>Jong Park</t>
-  </si>
-  <si>
-    <t>Modern Machining Practices
-*Extra Course Fee $ 50.00</t>
+    <t>Jong-Jin Park</t>
+  </si>
+  <si>
+    <t>Professional Conduct for Engineers</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
+  <si>
+    <t>B206</t>
+  </si>
+  <si>
+    <t>Hamid Hefazi</t>
+  </si>
+  <si>
+    <t>Heat and Mass Transfer</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>Gun Woong Bahng</t>
+  </si>
+  <si>
+    <t>PEC</t>
+  </si>
+  <si>
+    <t>P90</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Thermal Sciences and Fluid Mechanics Laboratory
+*Note: Extra course fee $100</t>
+  </si>
+  <si>
+    <t>TECH</t>
   </si>
   <si>
     <t>LAB</t>
@@ -92,180 +128,123 @@
     <t>L90</t>
   </si>
   <si>
-    <t>B1093</t>
-  </si>
-  <si>
-    <t>Jong Eun Park</t>
-  </si>
-  <si>
-    <t>Thermodynamics</t>
-  </si>
-  <si>
-    <t>B205</t>
-  </si>
-  <si>
-    <t>JONGSEONG CHOI</t>
-  </si>
-  <si>
-    <t>Introduction to Machine Design</t>
+    <t>C606</t>
+  </si>
+  <si>
+    <t>Changwoon Han</t>
+  </si>
+  <si>
+    <t>L91</t>
+  </si>
+  <si>
+    <t>Design of Machine Elements</t>
+  </si>
+  <si>
+    <t>Control System Analysis and Design</t>
+  </si>
+  <si>
+    <t>B314</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>B203</t>
   </si>
   <si>
-    <t>Changwoon Han</t>
-  </si>
-  <si>
-    <t>Instrumentation and Solids Lab
-*Extra Course Fee $ 100.00</t>
-  </si>
-  <si>
-    <t>TECH</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>L91</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Num Methods Eng Des Anal</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Manufacturing Processes</t>
-  </si>
-  <si>
-    <t>A312</t>
+    <t>Mechanical Engineering Design I
+*Note: Extra course fee $165</t>
+  </si>
+  <si>
+    <t>Partially: CEP, ESI, EXP+, SBS+,
+SPK, STEM+, WPTD</t>
+  </si>
+  <si>
+    <t>A117</t>
+  </si>
+  <si>
+    <t>Y. Eugene Pak</t>
+  </si>
+  <si>
+    <t>Mechatronics</t>
+  </si>
+  <si>
+    <t>Seung-Bok Choi</t>
+  </si>
+  <si>
+    <t>Applied Stress Analysis</t>
+  </si>
+  <si>
+    <t>B618</t>
+  </si>
+  <si>
+    <t>Pesearch in Mechanical Engnrng</t>
+  </si>
+  <si>
+    <t>TUT</t>
+  </si>
+  <si>
+    <t>T90</t>
+  </si>
+  <si>
+    <t>0 to 3</t>
+  </si>
+  <si>
+    <t>APPT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>T91</t>
+  </si>
+  <si>
+    <t>T92</t>
+  </si>
+  <si>
+    <t>T93</t>
+  </si>
+  <si>
+    <t>T94</t>
+  </si>
+  <si>
+    <t>T95</t>
   </si>
   <si>
     <t>Min Yang Yang</t>
   </si>
   <si>
-    <t>Intro to Fluid Mechanics</t>
-  </si>
-  <si>
-    <t>B313</t>
-  </si>
-  <si>
-    <t>Hamid Hefazi</t>
-  </si>
-  <si>
-    <t>REC</t>
-  </si>
-  <si>
-    <t>R90</t>
-  </si>
-  <si>
-    <t>RECW</t>
-  </si>
-  <si>
-    <t>Mechanical Vibrations</t>
-  </si>
-  <si>
-    <t>A724</t>
-  </si>
-  <si>
-    <t>Seung Bok Choi</t>
-  </si>
-  <si>
-    <t>Thermal System Design</t>
-  </si>
-  <si>
-    <t>B206</t>
-  </si>
-  <si>
-    <t>Gun Woong Bahng</t>
-  </si>
-  <si>
-    <t>Mechanical Engnrng Design II
-*Extra Course Fee $ 165.00</t>
-  </si>
-  <si>
-    <t>B618</t>
-  </si>
-  <si>
-    <t>Y.Eugene Pak</t>
-  </si>
-  <si>
-    <t>Fundamentals of Aerodynamics</t>
-  </si>
-  <si>
-    <t>Sejong Oh</t>
-  </si>
-  <si>
-    <t>Mechanical Engnrng Internship</t>
-  </si>
-  <si>
-    <t>EXP+</t>
-  </si>
-  <si>
-    <t>TUT</t>
-  </si>
-  <si>
-    <t>T90</t>
-  </si>
-  <si>
-    <t>3 to 9</t>
-  </si>
-  <si>
-    <t>APPT</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Research in Mechanical Engnrng</t>
-  </si>
-  <si>
-    <t>0 to 3</t>
-  </si>
-  <si>
-    <t>T91</t>
-  </si>
-  <si>
-    <t>T92</t>
-  </si>
-  <si>
-    <t>T93</t>
-  </si>
-  <si>
-    <t>T94</t>
+    <t>T96</t>
+  </si>
+  <si>
+    <t>Jongseong Choi</t>
   </si>
   <si>
     <t>T97</t>
   </si>
   <si>
-    <t>T98</t>
-  </si>
-  <si>
-    <t>Woong Moo Lee</t>
-  </si>
-  <si>
-    <t>Introduction to Robotics: Theory and Applications</t>
-  </si>
-  <si>
-    <t>Seungbok Choi</t>
-  </si>
-  <si>
-    <t>Introduction to Finite Element Methods</t>
-  </si>
-  <si>
-    <t>Research</t>
+    <t>Object-Oriented Programming for Scientists and Engineers</t>
+  </si>
+  <si>
+    <t>Mobile Pobotics and Autonomous Vehicles</t>
+  </si>
+  <si>
+    <t>B104</t>
+  </si>
+  <si>
+    <t>Advanced Control Systems</t>
+  </si>
+  <si>
+    <t>Pesearch</t>
   </si>
   <si>
     <t>1 to 12</t>
   </si>
   <si>
-    <t>T96</t>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Special Topics in Precision Engineering</t>
   </si>
   <si>
     <t>Mechanical Engineering Seminar</t>
@@ -286,7 +265,7 @@
     <t>1 to 3</t>
   </si>
   <si>
-    <t>Dissertation Resrch on Campus</t>
+    <t>Dissertation Pesrch on Campus</t>
   </si>
   <si>
     <t>1 to 9</t>
@@ -299,7 +278,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm am/pm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -328,6 +307,11 @@
       <name val="돋움"/>
     </font>
     <font/>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +321,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -403,11 +387,19 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -447,19 +439,52 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -719,7 +744,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>92251.0</v>
+        <v>52124.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
@@ -758,13 +783,13 @@
     </row>
     <row r="3">
       <c r="A3" s="8">
-        <v>92252.0</v>
+        <v>52125.0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="8">
-        <v>203.0</v>
+        <v>102.0</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>19</v>
@@ -777,75 +802,75 @@
         <v>90.0</v>
       </c>
       <c r="H3" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="12">
-        <v>0.5833333333333334</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K3" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8">
-        <v>92346.0</v>
+        <v>52126.0</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="8">
-        <v>226.0</v>
-      </c>
-      <c r="D4" s="13" t="s">
+        <v>203.0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="12">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.7847222222222222</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8">
-        <v>92287.0</v>
+        <v>52150.0</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="8">
-        <v>301.0</v>
+        <v>300.0</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="9" t="s">
@@ -855,196 +880,174 @@
         <v>90.0</v>
       </c>
       <c r="H5" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J5" s="12">
         <v>0.6458333333333334</v>
       </c>
       <c r="K5" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8">
-        <v>92288.0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8">
-        <v>310.0</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>52152.0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14">
+        <v>305.0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="8">
         <v>90.0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="16">
         <v>3.0</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J6" s="12">
-        <v>0.4375</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K6" s="12">
-        <v>0.4930555555555556</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
-        <v>92289.0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8">
-        <v>316.0</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>52151.0</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="8">
-        <v>2.0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J7" s="12">
-        <v>0.375</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="K7" s="12">
-        <v>0.4930555555555556</v>
+        <v>0.7465277777777778</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M7" s="17"/>
     </row>
     <row r="8">
       <c r="A8" s="8">
-        <v>97024.0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8">
-        <v>316.0</v>
-      </c>
-      <c r="D8" s="13" t="s">
+        <v>52153.0</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="14">
+        <v>317.0</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="M8" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0.4930555555555556</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8">
-        <v>92290.0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8">
-        <v>320.0</v>
-      </c>
-      <c r="D9" s="10" t="s">
+        <v>56479.0</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>3.0</v>
-      </c>
+      <c r="H9" s="17"/>
       <c r="I9" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J9" s="12">
-        <v>0.5833333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K9" s="12">
-        <v>0.6388888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>30</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="M9" s="17"/>
     </row>
     <row r="10">
       <c r="A10" s="8">
-        <v>92360.0</v>
+        <v>52154.0</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8">
-        <v>325.0</v>
+        <v>410.0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="9" t="s">
@@ -1057,103 +1060,105 @@
         <v>3.0</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J10" s="12">
-        <v>0.6458333333333334</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="K10" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
-        <v>92295.0</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16">
-        <v>364.0</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>52156.0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="14">
+        <v>411.0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="8">
         <v>90.0</v>
       </c>
-      <c r="H11" s="8">
-        <v>3.0</v>
+      <c r="H11" s="16">
+        <v>4.0</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="12">
-        <v>0.5833333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K11" s="12">
-        <v>0.6388888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
-        <v>92296.0</v>
+        <v>52155.0</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J12" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K12" s="12">
-        <v>0.7465277777777778</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="17"/>
     </row>
     <row r="13">
       <c r="A13" s="8">
-        <v>92347.0</v>
+        <v>56533.0</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="8">
-        <v>402.0</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="11"/>
+        <v>440.0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="F13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>3.0</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J13" s="12">
         <v>0.5833333333333334</v>
@@ -1173,24 +1178,24 @@
         <v>0.6388888888888888</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8">
-        <v>92308.0</v>
+        <v>52207.0</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="8">
-        <v>422.0</v>
+        <v>450.0</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="9" t="s">
@@ -1203,126 +1208,124 @@
         <v>3.0</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J14" s="12">
-        <v>0.7083333333333334</v>
+        <v>0.375</v>
       </c>
       <c r="K14" s="12">
-        <v>0.7638888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8">
-        <v>92489.0</v>
+        <v>56480.0</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8">
-        <v>441.0</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="14"/>
+        <v>455.0</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="8">
-        <v>91.0</v>
+        <v>90.0</v>
       </c>
       <c r="H15" s="8">
         <v>3.0</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J15" s="12">
-        <v>0.5833333333333334</v>
+        <v>0.4375</v>
       </c>
       <c r="K15" s="12">
-        <v>0.6388888888888888</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8">
-        <v>97042.0</v>
+        <v>52128.0</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="8">
-        <v>464.0</v>
+        <v>499.0</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8">
-        <v>90.0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>3.0</v>
+        <v>55</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J16" s="12">
-        <v>0.6458333333333334</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="K16" s="12">
-        <v>0.7013888888888888</v>
+        <v>0.041666666666666664</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8">
-        <v>92395.0</v>
+        <v>52129.0</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="8">
-        <v>488.0</v>
+        <v>499.0</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>63</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J17" s="12">
         <v>0.041666666666666664</v>
@@ -1331,15 +1334,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8">
-        <v>92282.0</v>
+        <v>52130.0</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>13</v>
@@ -1348,20 +1351,20 @@
         <v>499.0</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J18" s="12">
         <v>0.041666666666666664</v>
@@ -1370,15 +1373,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8">
-        <v>92283.0</v>
+        <v>52131.0</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>13</v>
@@ -1387,20 +1390,20 @@
         <v>499.0</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J19" s="12">
         <v>0.041666666666666664</v>
@@ -1409,15 +1412,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8">
-        <v>92284.0</v>
+        <v>52158.0</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>13</v>
@@ -1426,20 +1429,20 @@
         <v>499.0</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J20" s="12">
         <v>0.041666666666666664</v>
@@ -1448,15 +1451,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8">
-        <v>92285.0</v>
+        <v>52159.0</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>13</v>
@@ -1465,20 +1468,20 @@
         <v>499.0</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>73</v>
-      </c>
       <c r="H21" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J21" s="12">
         <v>0.041666666666666664</v>
@@ -1487,15 +1490,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8">
-        <v>92286.0</v>
+        <v>52223.0</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>13</v>
@@ -1504,37 +1507,37 @@
         <v>499.0</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="J22" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="K22" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8">
-        <v>92374.0</v>
+        <v>56926.0</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>13</v>
@@ -1543,20 +1546,20 @@
         <v>499.0</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J23" s="12">
         <v>0.041666666666666664</v>
@@ -1565,100 +1568,102 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8">
-        <v>92390.0</v>
+        <v>52367.0</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="8">
-        <v>499.0</v>
+        <v>510.0</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>70</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="H24" s="8">
+        <v>3.0</v>
       </c>
       <c r="I24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8">
-        <v>97005.0</v>
+        <v>56482.0</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="8">
-        <v>529.0</v>
+        <v>530.0</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="11"/>
+      <c r="G25" s="8">
+        <v>90.0</v>
+      </c>
       <c r="H25" s="8">
         <v>3.0</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J25" s="12">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="K25" s="12">
-        <v>0.4305555555555556</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M25" s="9" t="s">
-        <v>79</v>
+        <v>53</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8">
-        <v>96979.0</v>
+        <v>52208.0</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="8">
-        <v>539.0</v>
+        <v>550.0</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="9" t="s">
@@ -1671,33 +1676,33 @@
         <v>3.0</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="J26" s="12">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="K26" s="12">
         <v>0.4930555555555556</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8">
-        <v>97201.0</v>
+        <v>56814.0</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="8">
-        <v>564.0</v>
+        <v>559.0</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="9" t="s">
@@ -1710,7 +1715,7 @@
         <v>3.0</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="J27" s="12">
         <v>0.6458333333333334</v>
@@ -1719,54 +1724,54 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8">
-        <v>92271.0</v>
+        <v>56871.0</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="8">
-        <v>599.0</v>
+        <v>560.0</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="G28" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>3.0</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="J28" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="K28" s="12">
-        <v>0.041666666666666664</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8">
-        <v>92272.0</v>
+        <v>52132.0</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>13</v>
@@ -1775,20 +1780,20 @@
         <v>599.0</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J29" s="12">
         <v>0.041666666666666664</v>
@@ -1797,15 +1802,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8">
-        <v>92273.0</v>
+        <v>52133.0</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>13</v>
@@ -1814,20 +1819,20 @@
         <v>599.0</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J30" s="12">
         <v>0.041666666666666664</v>
@@ -1836,15 +1841,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8">
-        <v>92274.0</v>
+        <v>52134.0</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>13</v>
@@ -1853,20 +1858,20 @@
         <v>599.0</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J31" s="12">
         <v>0.041666666666666664</v>
@@ -1875,15 +1880,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8">
-        <v>92275.0</v>
+        <v>52135.0</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>13</v>
@@ -1892,20 +1897,20 @@
         <v>599.0</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G32" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="I32" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J32" s="12">
         <v>0.041666666666666664</v>
@@ -1914,15 +1919,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="8">
-        <v>92350.0</v>
+        <v>52160.0</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>13</v>
@@ -1931,20 +1936,20 @@
         <v>599.0</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J33" s="12">
         <v>0.041666666666666664</v>
@@ -1953,35 +1958,37 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8">
-        <v>92307.0</v>
+        <v>52161.0</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="8">
-        <v>691.0</v>
+        <v>599.0</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="9" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="I34" s="9" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="J34" s="12">
         <v>0.041666666666666664</v>
@@ -1990,115 +1997,113 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="8">
-        <v>92373.0</v>
+        <v>52226.0</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="8">
-        <v>698.0</v>
+        <v>599.0</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="J35" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="8">
-        <v>92276.0</v>
+        <v>57071.0</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="8">
-        <v>699.0</v>
+        <v>637.0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="H36" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="K36" s="12">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M36" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="8">
-        <v>92277.0</v>
+        <v>52164.0</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="8">
-        <v>699.0</v>
+        <v>691.0</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>91</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H37" s="20"/>
       <c r="I37" s="9" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J37" s="12">
         <v>0.041666666666666664</v>
@@ -2107,37 +2112,37 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="8">
-        <v>92278.0</v>
+        <v>52227.0</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="8">
-        <v>699.0</v>
+        <v>698.0</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J38" s="12">
         <v>0.041666666666666664</v>
@@ -2146,15 +2151,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="8">
-        <v>92279.0</v>
+        <v>52136.0</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>13</v>
@@ -2163,20 +2168,20 @@
         <v>699.0</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J39" s="12">
         <v>0.041666666666666664</v>
@@ -2185,15 +2190,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="8">
-        <v>92280.0</v>
+        <v>52137.0</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>13</v>
@@ -2202,20 +2207,20 @@
         <v>699.0</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J40" s="12">
         <v>0.041666666666666664</v>
@@ -2224,15 +2229,15 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M40" s="9" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="8">
-        <v>92352.0</v>
+        <v>52138.0</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>13</v>
@@ -2241,20 +2246,20 @@
         <v>699.0</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J41" s="12">
         <v>0.041666666666666664</v>
@@ -2263,18 +2268,1052 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="8">
+        <v>52139.0</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="8">
+        <v>699.0</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K42" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8">
+        <v>52162.0</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="8">
+        <v>699.0</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K43" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8">
+        <v>52163.0</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="8">
+        <v>699.0</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8">
+        <v>52228.0</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="8">
+        <v>699.0</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="K45" s="12">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="22"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="8"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="13"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="8"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="17"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="13"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="17"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="13"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="8"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="17"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="8"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="13"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="17"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="13"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="8"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="17"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="13"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="8"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="17"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="17"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="13"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="17"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="13"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="17"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="13"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="17"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="13"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="17"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="19"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="13"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="102">
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="M81:M82"/>
+    <mergeCell ref="M85:M86"/>
+    <mergeCell ref="M87:M88"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="M79:M80"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
